--- a/O2/UML/Use_Case/Use_Case.xlsx
+++ b/O2/UML/Use_Case/Use_Case.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="usecase" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -74,105 +74,104 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>140152</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4031795" y="85725"/>
+          <a:ext cx="2867026" cy="5210175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>138165</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Group 6"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="133350"/>
-          <a:ext cx="7981950" cy="4362450"/>
-          <a:chOff x="142875" y="133350"/>
-          <a:chExt cx="7981950" cy="4362450"/>
+          <a:off x="149679" y="149679"/>
+          <a:ext cx="8819522" cy="5538107"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2114550" y="133350"/>
-            <a:ext cx="3371850" cy="4000500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Picture 5"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="142875" y="142875"/>
-            <a:ext cx="7981950" cy="4352925"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -465,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF33"/>
+  <dimension ref="A1:BJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BE35" sqref="BE35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="BI9" sqref="BI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -532,8 +531,12 @@
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
-    </row>
-    <row r="2" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+    </row>
+    <row r="2" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -592,8 +595,12 @@
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
-    </row>
-    <row r="3" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+    </row>
+    <row r="3" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -652,8 +659,12 @@
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
-    </row>
-    <row r="4" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+    </row>
+    <row r="4" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -712,8 +723,12 @@
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
-    </row>
-    <row r="5" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+    </row>
+    <row r="5" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -772,8 +787,12 @@
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
-    </row>
-    <row r="6" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+    </row>
+    <row r="6" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -832,8 +851,12 @@
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
-    </row>
-    <row r="7" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+    </row>
+    <row r="7" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -892,8 +915,12 @@
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
-    </row>
-    <row r="8" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+    </row>
+    <row r="8" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -952,8 +979,12 @@
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
-    </row>
-    <row r="9" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+    </row>
+    <row r="9" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1012,8 +1043,12 @@
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
-    </row>
-    <row r="10" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+    </row>
+    <row r="10" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1072,8 +1107,12 @@
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
-    </row>
-    <row r="11" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+    </row>
+    <row r="11" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1132,8 +1171,12 @@
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
-    </row>
-    <row r="12" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+    </row>
+    <row r="12" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1192,8 +1235,12 @@
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
-    </row>
-    <row r="13" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+    </row>
+    <row r="13" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1252,8 +1299,12 @@
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
-    </row>
-    <row r="14" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+    </row>
+    <row r="14" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1312,8 +1363,12 @@
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
-    </row>
-    <row r="15" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+    </row>
+    <row r="15" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1372,8 +1427,12 @@
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
-    </row>
-    <row r="16" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+    </row>
+    <row r="16" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1432,8 +1491,12 @@
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
-    </row>
-    <row r="17" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+    </row>
+    <row r="17" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1492,8 +1555,12 @@
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
-    </row>
-    <row r="18" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+    </row>
+    <row r="18" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1552,8 +1619,12 @@
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
-    </row>
-    <row r="19" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+    </row>
+    <row r="19" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1612,8 +1683,12 @@
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
-    </row>
-    <row r="20" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+    </row>
+    <row r="20" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1672,8 +1747,12 @@
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
-    </row>
-    <row r="21" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+    </row>
+    <row r="21" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1732,8 +1811,12 @@
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
-    </row>
-    <row r="22" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+    </row>
+    <row r="22" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1792,8 +1875,12 @@
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
-    </row>
-    <row r="23" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+    </row>
+    <row r="23" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1852,8 +1939,12 @@
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
-    </row>
-    <row r="24" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+    </row>
+    <row r="24" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1912,8 +2003,12 @@
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
-    </row>
-    <row r="25" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+    </row>
+    <row r="25" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1972,8 +2067,12 @@
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
-    </row>
-    <row r="26" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+    </row>
+    <row r="26" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2032,8 +2131,12 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
-    </row>
-    <row r="27" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+    </row>
+    <row r="27" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2092,8 +2195,12 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
-    </row>
-    <row r="28" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+    </row>
+    <row r="28" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2152,8 +2259,12 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
-    </row>
-    <row r="29" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+    </row>
+    <row r="29" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2212,8 +2323,12 @@
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
-    </row>
-    <row r="30" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+    </row>
+    <row r="30" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2272,8 +2387,12 @@
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
-    </row>
-    <row r="31" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+    </row>
+    <row r="31" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2332,8 +2451,12 @@
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
-    </row>
-    <row r="32" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+    </row>
+    <row r="32" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2392,8 +2515,12 @@
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
-    </row>
-    <row r="33" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+    </row>
+    <row r="33" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2452,6 +2579,458 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+    </row>
+    <row r="34" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+    </row>
+    <row r="35" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+    </row>
+    <row r="36" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+    </row>
+    <row r="37" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+    </row>
+    <row r="38" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+    </row>
+    <row r="39" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+    </row>
+    <row r="40" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
